--- a/resource/40.design/440.development/[Saturn]449.crawling/32여성.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.crawling/32여성.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.설계\449.DB 데이터\크롤링 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449.crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="32여성" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>네이처스웨이 얼라이브 여성 멀티비타민 90정</t>
   </si>
@@ -109,198 +109,6 @@
   </si>
   <si>
     <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg</t>
-  </si>
-  <si>
-    <t>자로우 펨 도필러스 60 캡슐 상온보관용</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg</t>
-  </si>
-  <si>
-    <t>가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg</t>
-  </si>
-  <si>
-    <t>가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 프리마도필러스 루테리 파우더 5oz (141.75g)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/25/1000000263/1000000263_main_090.jpg</t>
-  </si>
-  <si>
-    <t>자로우 펨 도필러스 60 캡슐 상온보관용 3병 세트</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/01/04/1000001897/1000001897_main_031.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 유산균 250억 50캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/02/06/1000003023/1000003023_main_059.jpg</t>
-  </si>
-  <si>
-    <t>네오셀 콜라겐 플러스 비타민C 비오틴 1&amp;3 180정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/04/07/1000000353/1000000353_main_049.jpg</t>
-  </si>
-  <si>
-    <t>나트롤 비오틴 10,000mcg 최대강도 100정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/10/14/1000000247/1000000247_main_022.png</t>
-  </si>
-  <si>
-    <t>뉴트렉스 퓨어 하와이안 스피루리나 500mg 400정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/12/1000000164/1000000164_main_013.jpg</t>
-  </si>
-  <si>
-    <t>네오셀 히알루론산 100mg 60캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/04/07/1000000356/1000000356_main_028.jpg</t>
-  </si>
-  <si>
-    <t>솔가 스킨 네일 헤어 어드밴스드 MSM 120정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg</t>
-  </si>
-  <si>
-    <t>블루보넷 뷰티풀 앨리 히알루론산 100mg 90소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001956/1000001956_main_034.jpg</t>
-  </si>
-  <si>
-    <t>솔가 비오틴 1000mcg 100 식물성캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000502/1000000502_main_061.jpg</t>
-  </si>
-  <si>
-    <t>솔가 맥주효모+비오틴 5000mcg</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 비오틴 1000mcg 100로젠</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000129/1000000129_main_074.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 얼라이브 원스 데일리 여성 멀티비타민 60정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000087/1000000087_main_063.jpg</t>
-  </si>
-  <si>
-    <t>솔가 에스터C 플러스 1000mg 90정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/19/1000000634/1000000634_main_011.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 얼라이브 맥스3 멀티비타민 180정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg</t>
-  </si>
-  <si>
-    <t>YS에코비팜 프로폴리스 &amp; 허브 스프레이 1 fl oz (30 ml)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/10/43/1000001851/1000001851_main_012.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 유기농 스피루리나 500mg 500정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000781/1000000781_main_013.jpg</t>
-  </si>
-  <si>
-    <t>솔가 이스트 프리 셀레늄 100mcg 100정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000496/1000000496_main_09.jpg</t>
-  </si>
-  <si>
-    <t>가든오브라이프 비타민코드 비타민C 120식물성캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/15/1000000580/1000000580_main_024.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 달맞이꽃 1300mg 120소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001997/1000001997_main_071.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 레드 클로버 블로썸 허브 400mg 100캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/06/1000000330/1000000330_main_039.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 오메가 우먼 달맞이꽃 오일 레몬맛 120 소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/10/1000001230/1000001230_main_061.jpg</t>
-  </si>
-  <si>
-    <t>컨트리라이프 달맞이꽃 오일 500mg 60소프트겔</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000416/1000000416_main_044.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 포티 루트 적하수오 610mg 100 캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000338/1000000338_main_028.jpg</t>
-  </si>
-  <si>
-    <t>마이카인드 오가닉 플랜트 칼슘 180정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/11/47//1000002740/1000002740_main_019.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 DIM 플러스 에스트로겐 물질대사 포뮬라 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/05/21/1000003042/1000000331_main_060.jpg</t>
-  </si>
-  <si>
-    <t>블루보넷 바이텍스 베리 추출물 60베지캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002764/1000002764_main_050.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 콜린 이노시톨 250/250mg 100캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002863/1000002863_main_038.jpg</t>
-  </si>
-  <si>
-    <t>마이카인드 오가닉 플랜트 칼슘 90정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/02/07/1000002975/1000002740_main_030.jpg</t>
   </si>
   <si>
     <t>상품명</t>
@@ -1234,7 +1042,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,13 +1052,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,401 +1226,113 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
-        <v>31200</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1">
-        <v>68500</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1">
-        <v>38200</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>24200</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1">
-        <v>93600</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1">
-        <v>35300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22800</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1">
-        <v>19500</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1">
-        <v>37800</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1">
-        <v>31800</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1">
-        <v>23800</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1">
-        <v>13800</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1">
-        <v>39600</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>18300</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1">
-        <v>11500</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="1">
-        <v>24800</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="1">
-        <v>22800</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="1">
-        <v>49600</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1">
-        <v>17400</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1">
-        <v>29600</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1">
-        <v>13800</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="1">
-        <v>33200</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1">
-        <v>37800</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1">
-        <v>41700</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>31800</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="1">
-        <v>32400</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="1">
-        <v>11500</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1">
-        <v>33500</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="1">
-        <v>14600</v>
-      </c>
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="1">
-        <v>12800</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="1">
-        <v>79500</v>
-      </c>
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="1">
-        <v>48400</v>
-      </c>
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1">
-        <v>16500</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="1">
-        <v>12800</v>
-      </c>
-      <c r="C51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="1">
-        <v>39800</v>
-      </c>
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
